--- a/data/targets/feb-2024-updates/nomis_2024_02_05_182441.xlsx
+++ b/data/targets/feb-2024-updates/nomis_2024_02_05_182441.xlsx
@@ -301,7 +301,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -342,6 +342,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,10 +363,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1758,6 +1762,12 @@
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="10" t="n">
+        <f aca="false">SUM(B36:B44)</f>
+        <v>2678000</v>
       </c>
     </row>
   </sheetData>
